--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -281,18 +281,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>★</t>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2014-05-16 (Fri)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2014-05-16 (Fri)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">One application is right in this project. </t>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes, I mean foundation. I changed other parts on this paper.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Products is right. Not only the product we created, but other products in the team. At that time, they had around 5 products.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +382,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -387,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -437,6 +451,16 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -738,9 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E47"/>
+  <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -748,10 +774,11 @@
     <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
     <col min="3" max="4" width="15.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="170.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="53.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>41</v>
       </c>
@@ -762,8 +789,11 @@
       <c r="E2" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F2" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -771,13 +801,13 @@
         <v>44</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -785,46 +815,64 @@
         <v>44</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B5" s="4">
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="4">
+      <c r="F5" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
+      <c r="F6" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B7" s="17">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F7" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -835,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>8</v>
       </c>
@@ -846,19 +894,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B10" s="14">
         <v>9</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>10</v>
       </c>
@@ -869,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>11</v>
       </c>
@@ -880,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>12</v>
       </c>
@@ -891,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>13</v>
       </c>
@@ -899,13 +947,13 @@
         <v>46</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>14</v>
       </c>
@@ -916,7 +964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>15</v>
       </c>
@@ -935,7 +983,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>14</v>
@@ -993,7 +1041,7 @@
         <v>54</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -1007,7 +1055,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>14</v>
@@ -1041,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -1090,7 +1138,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>14</v>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -301,6 +301,25 @@
   </si>
   <si>
     <t>Products is right. Not only the product we created, but other products in the team. At that time, they had around 5 products.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No. I mean they often showed us an authoritative behavior.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-17 (Sat)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes, thanks!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -339,7 +358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +397,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,25 +455,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -765,7 +772,7 @@
   <dimension ref="B2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,7 +807,7 @@
       <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -814,7 +821,7 @@
       <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -822,53 +829,53 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
     </row>
@@ -895,26 +902,35 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>9</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="D10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
+      <c r="B11" s="15">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -929,14 +945,20 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
+      <c r="B13" s="15">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -946,7 +968,7 @@
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -982,7 +1004,7 @@
       <c r="C17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -1040,7 +1062,7 @@
       <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1054,7 +1076,7 @@
       <c r="C23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -1088,7 +1110,7 @@
       <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -1137,7 +1159,7 @@
       <c r="C30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="13" t="s">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -320,6 +320,22 @@
   </si>
   <si>
     <t>Yes, thanks!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure, thanks!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-18 (Sun)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I omitted 'level' everywhere, thanks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-17 (Sat)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -358,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +411,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -414,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -458,16 +468,10 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -771,9 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -829,53 +831,53 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="15">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="15">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -902,34 +904,34 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="15">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="15">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -945,34 +947,37 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="15">
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -997,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B17" s="12">
         <v>16</v>
       </c>
@@ -1011,7 +1016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>17</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>18</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>19</v>
       </c>
@@ -1044,18 +1049,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="4">
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F21" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>21</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B23" s="12">
         <v>22</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B24" s="5">
         <v>23</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>24</v>
       </c>
@@ -1106,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>25</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>26</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="6">
         <v>27</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="6">
         <v>28</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B30" s="12">
         <v>29</v>
       </c>
@@ -1166,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="5">
         <v>30</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="6">
         <v>31</v>
       </c>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -152,30 +152,6 @@
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>意味を明確に</t>
-    <rPh sb="0" eb="2">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>メイカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矛盾</t>
-    <rPh sb="0" eb="2">
-      <t>ムジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まとめて直せるかも</t>
-    <rPh sb="4" eb="5">
-      <t>ナオ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -264,10 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>意味を明確に</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Technique の意味を明確に</t>
   </si>
   <si>
@@ -304,13 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No. I mean they often showed us an authoritative behavior.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -336,6 +301,108 @@
   </si>
   <si>
     <t>2014-05-17 (Sat)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To make the work efficient. I changed other parts using the word “streamlining”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clarify the meaning</t>
+  </si>
+  <si>
+    <t>Clarify the meaning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-18 (Sun)</t>
+  </si>
+  <si>
+    <t>Due date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Advice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wording</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“Automation and Development Techniques” is appropriate.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“Amazingly”. But it’s not preferable in the paper, I guess. I will delete it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TheHiro7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contradiction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thehiro23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オペミスの件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE26</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,12 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -373,8 +434,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,54 +498,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -775,603 +858,674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="15.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="170.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B17" s="16">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B18" s="15">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B19" s="15">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B20" s="15">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B22" s="15">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B23" s="16">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="14">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="15">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B26" s="15">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B27" s="15">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="17">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B29" s="17">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B30" s="16">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B31" s="13">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B32" s="17">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B33" s="17">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B34" s="15">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>34</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="19">
+        <v>35</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B37" s="15">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B38" s="15">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B39" s="19">
+        <v>38</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B40" s="19">
+        <v>39</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B41" s="13">
+        <v>40</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B42" s="15">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B43" s="19">
+        <v>43</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B44" s="16">
         <v>44</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="5">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B45" s="16">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B46" s="16">
         <v>46</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B15" s="4">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="4">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="12">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="4">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="4">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="B47" s="16">
+        <v>47</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="4">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="4">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="12">
-        <v>22</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="5">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="4">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="4">
-        <v>25</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="4">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="6">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B29" s="6">
-        <v>28</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="12">
-        <v>29</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="5">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="6">
-        <v>31</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="6">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="8">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="10">
-        <v>35</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="4">
-        <v>36</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="4">
-        <v>37</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="10">
-        <v>38</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="10">
-        <v>39</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="5">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B42" s="4">
-        <v>41</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B43" s="10">
-        <v>43</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B44" s="12">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B45" s="12">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="12">
-        <v>46</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="12">
-        <v>47</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="F47" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E2"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2014-05-10" sheetId="3" r:id="rId1"/>
+    <sheet name="Status" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014-05-10'!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Status!$B$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -156,16 +156,6 @@
   </si>
   <si>
     <t>#13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>繰り返し…</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -236,10 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り返し…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Technique の意味を明確に</t>
   </si>
   <si>
@@ -374,11 +360,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE17</t>
+    <t>オペミスの件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I changed the text, thanks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-18 (Sun)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-20 (Tue)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-18 (Sun)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Your suggestion is right, thanks!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初から一緒だったが、思惑は違った。そのことに気付いていくのか一連のプロセスだった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE18</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -386,15 +404,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thehiro23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オペミスの件</t>
+    <t>Thehiro21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE23</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -402,7 +416,193 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE26</t>
+    <t>2014-05-16 (Fri)
+-&gt; 2014-05-20 (Tue)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Repetition</t>
+  </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE34</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE38</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I meant “unit tests”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simplify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE46</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE47</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE49</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the business analyst and the designers.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE51</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE52</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE54</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE59</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The iOS developers and the project manager.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE62</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-20 (Tue)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE63</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤66</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -442,30 +642,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -481,7 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,46 +680,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,14 +710,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,24 +1020,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F47"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="170.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
@@ -881,654 +1044,816 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="F24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="F26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
+      <c r="F31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B32" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B33" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B17" s="16">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="15">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="15">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="15">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="13">
-        <v>20</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="15">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B23" s="16">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="14">
-        <v>23</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="15">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="15">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="15">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="17">
-        <v>27</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="17">
-        <v>28</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B30" s="16">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="13">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B35" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="17">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="17">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="15">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="18">
-        <v>34</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="19">
-        <v>35</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="15">
-        <v>36</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="15">
-        <v>37</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="19">
-        <v>38</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>58</v>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="19">
-        <v>39</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>58</v>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B40" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="13">
-        <v>40</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B42" s="15">
-        <v>41</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+      <c r="G41" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B43" s="19">
-        <v>43</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>58</v>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B44" s="16">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B44" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B45" s="16">
-        <v>45</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B46" s="16">
-        <v>46</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B47" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="B47" s="16">
-        <v>47</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="4"/>
+      <c r="G47" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E2"/>
+  <autoFilter ref="B2:F2"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>contradiction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,34 +377,6 @@
   </si>
   <si>
     <t>Your suggestion is right, thanks!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最初から一緒だったが、思惑は違った。そのことに気付いていくのか一連のプロセスだった。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thehiro21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE23</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -432,35 +400,134 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>I meant “unit tests”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simplify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the business analyst and the designers.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE58</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The iOS developers and the project manager.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-20 (Tue)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I meant “regression”. I changed all other parts.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No. Regression.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Errors by manual operation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted this sentence. I only meant they shared no common goals and objectives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thehiro23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>JE34</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE33</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE28</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE38</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I meant “unit tests”.</t>
+    <t>JE35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE37</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -468,27 +535,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE41</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE43</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sure.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE45</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Repetition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Simplify</t>
+    <t>JE40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE44</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -500,18 +555,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE48</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE49</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>the business analyst and the designers.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE51</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,27 +567,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE53</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE54</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE55</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE56</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE57</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE58</t>
+    <t>The same as JE47.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -548,11 +579,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The iOS developers and the project manager.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE60</t>
+    <t>JE61</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -560,15 +587,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2014-05-19 (Mon)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2014-05-20 (Tue)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2014-05-19 (Mon)</t>
+    <t>Clarify the meaning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clarify the meaning</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -584,25 +607,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>伊藤66</t>
+    <t>JE66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE69</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE71</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤72</t>
     <rPh sb="0" eb="2">
       <t>イトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>○</t>
+    <t>JE13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,7 +674,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +699,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -680,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -716,7 +754,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1088,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>75</v>
@@ -1064,7 +1108,7 @@
         <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>59</v>
@@ -1084,7 +1128,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>74</v>
@@ -1104,7 +1148,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>58</v>
@@ -1124,7 +1168,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>58</v>
@@ -1144,7 +1188,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>58</v>
@@ -1164,7 +1208,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>68</v>
@@ -1177,32 +1221,34 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>95</v>
+      <c r="G9" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>65</v>
@@ -1214,13 +1260,13 @@
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>65</v>
@@ -1233,30 +1279,34 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>70</v>
@@ -1270,16 +1320,16 @@
     </row>
     <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
@@ -1290,36 +1340,36 @@
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
@@ -1329,31 +1379,31 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
@@ -1362,34 +1412,34 @@
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>17</v>
@@ -1398,16 +1448,16 @@
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>18</v>
@@ -1418,13 +1468,13 @@
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>74</v>
@@ -1433,34 +1483,34 @@
         <v>19</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>74</v>
@@ -1469,19 +1519,19 @@
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>21</v>
@@ -1490,13 +1540,13 @@
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="8" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>74</v>
@@ -1505,19 +1555,19 @@
         <v>22</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>23</v>
@@ -1525,62 +1575,70 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>74</v>
@@ -1589,51 +1647,59 @@
         <v>26</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="D32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="D33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>29</v>
@@ -1642,14 +1708,14 @@
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>30</v>
@@ -1658,14 +1724,14 @@
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>31</v>
@@ -1674,14 +1740,14 @@
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="9" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>32</v>
@@ -1690,14 +1756,14 @@
     </row>
     <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="9" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>33</v>
@@ -1706,14 +1772,14 @@
     </row>
     <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>34</v>
@@ -1722,14 +1788,14 @@
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>35</v>
@@ -1738,13 +1804,13 @@
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>74</v>
@@ -1753,19 +1819,19 @@
         <v>36</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="10" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>37</v>
@@ -1774,14 +1840,14 @@
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="11" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>38</v>
@@ -1790,14 +1856,14 @@
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B44" s="10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
@@ -1806,14 +1872,14 @@
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B45" s="10" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
@@ -1822,14 +1888,14 @@
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>45</v>
@@ -1838,14 +1904,14 @@
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>48</v>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="163">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -384,142 +384,158 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Repetition</t>
+  </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I meant “unit tests”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Repetition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simplify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>the business analyst and the designers.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The iOS developers and the project manager.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-20 (Tue)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I meant “regression”. I changed all other parts.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No. Regression.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Errors by manual operation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted this sentence. I only meant they shared no common goals and objectives.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thehiro23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The same as JE47.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clarify the meaning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clarify the meaning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE68</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abandoned.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>2014-05-16 (Fri)
--&gt; 2014-05-20 (Tue)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Repetition</t>
-  </si>
-  <si>
-    <t>Repetition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deleted.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I meant “unit tests”.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sure.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Repetition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Simplify</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>the business analyst and the designers.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE56</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE58</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The iOS developers and the project manager.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2014-05-19 (Mon)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2014-05-20 (Tue)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2014-05-19 (Mon)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I meant “regression”. I changed all other parts.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No. Regression.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Errors by manual operation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deleted this sentence. I only meant they shared no common goals and objectives.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thehiro23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE34</t>
+-&gt; 2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE33</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -527,11 +543,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE37</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE39</t>
+    <t>JE36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE38</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -539,6 +555,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Verified. I added the following text.
+“It’s five times faster than at the start of the project.”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>JE42</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -551,7 +572,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE47</t>
+    <t>JE48</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -563,15 +584,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE52</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE54</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The same as JE47.</t>
+    <t>JE53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verified. I covered all information of Fig.1 here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verified. I covered all information of Fig.3 till “’Business-facing tests that support the team’ [3]”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE57</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -587,31 +616,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Clarify the meaning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clarify the meaning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE63</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE64</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>JE66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>JE65</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE66</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE68</t>
+    <t>JE67</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -619,22 +636,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE70</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE71</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>伊藤72</t>
+    <t>JE72</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE73</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE74</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤75</t>
     <rPh sb="0" eb="2">
       <t>イトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -674,7 +695,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -699,12 +720,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -718,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -754,14 +769,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="56" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,7 +1078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1088,7 +1102,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>75</v>
@@ -1108,7 +1122,7 @@
         <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>59</v>
@@ -1128,7 +1142,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>74</v>
@@ -1148,7 +1162,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>58</v>
@@ -1168,7 +1182,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>58</v>
@@ -1188,7 +1202,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>58</v>
@@ -1208,7 +1222,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>68</v>
@@ -1222,33 +1236,33 @@
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>65</v>
@@ -1260,13 +1274,13 @@
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>65</v>
@@ -1280,33 +1294,33 @@
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>70</v>
@@ -1320,13 +1334,13 @@
     </row>
     <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>92</v>
@@ -1346,7 +1360,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>92</v>
@@ -1360,13 +1374,13 @@
     </row>
     <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>92</v>
@@ -1379,24 +1393,28 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B17" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="D17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>72</v>
@@ -1412,13 +1430,13 @@
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>92</v>
@@ -1427,12 +1445,12 @@
         <v>16</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
@@ -1448,13 +1466,13 @@
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>90</v>
@@ -1468,13 +1486,13 @@
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>74</v>
@@ -1487,30 +1505,34 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>74</v>
@@ -1519,15 +1541,15 @@
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
@@ -1540,13 +1562,13 @@
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>74</v>
@@ -1555,19 +1577,19 @@
         <v>22</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>23</v>
@@ -1576,69 +1598,73 @@
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B30" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="D30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>74</v>
@@ -1647,52 +1673,52 @@
         <v>26</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="8" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>72</v>
@@ -1708,14 +1734,14 @@
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="10" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>30</v>
@@ -1724,7 +1750,7 @@
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>57</v>
@@ -1740,7 +1766,7 @@
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>72</v>
@@ -1756,14 +1782,14 @@
     </row>
     <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>33</v>
@@ -1772,7 +1798,7 @@
     </row>
     <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>56</v>
@@ -1788,7 +1814,7 @@
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>56</v>
@@ -1804,13 +1830,13 @@
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>74</v>
@@ -1819,19 +1845,19 @@
         <v>36</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>37</v>
@@ -1840,7 +1866,7 @@
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>56</v>
@@ -1856,14 +1882,14 @@
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B44" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
@@ -1872,14 +1898,14 @@
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B45" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
@@ -1888,14 +1914,14 @@
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>45</v>
@@ -1903,20 +1929,24 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B47" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="D47" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="170">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -510,10 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE68</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE13</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -543,36 +539,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE38</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Verified. I added the following text.
 “It’s five times faster than at the start of the project.”</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE42</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE44</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE46</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE48</t>
+    <t>JE53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verified. I covered all information of Fig.1 here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verified. I covered all information of Fig.3 till “’Business-facing tests that support the team’ [3]”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We used Kanban board, too. Kanban helped us.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+  </si>
+  <si>
+    <t>2014-05-19 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I added the following explanation.
+“a technique to replace the real depended-on component with the test-specific component”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE37</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE47</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -580,30 +604,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Dispersed. “Located at a different site” is right.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014-05-20 (Tue)</t>
+  </si>
+  <si>
     <t>JE51</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE53</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Verified. I covered all information of Fig.1 here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Verified. I covered all information of Fig.3 till “’Business-facing tests that support the team’ [3]”.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE55</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE57</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE59</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -612,15 +627,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE62</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE64</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE66</t>
+    <t>Sure. I meant self-confident.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE63</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -640,19 +651,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE72</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JE73</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE74</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伊藤75</t>
+    <t>JE75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE77</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE79</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE81</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE83</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE85</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤87</t>
     <rPh sb="0" eb="2">
       <t>イトウ</t>
     </rPh>
@@ -1078,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,7 +1263,7 @@
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>87</v>
@@ -1403,34 +1430,38 @@
         <v>109</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>100</v>
@@ -1448,25 +1479,29 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>72</v>
@@ -1486,7 +1521,7 @@
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>50</v>
@@ -1506,7 +1541,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>44</v>
@@ -1515,18 +1550,18 @@
         <v>109</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>51</v>
@@ -1545,24 +1580,28 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>101</v>
@@ -1582,14 +1621,14 @@
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>23</v>
@@ -1598,7 +1637,7 @@
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>55</v>
@@ -1618,7 +1657,7 @@
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>54</v>
@@ -1638,7 +1677,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B30" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>44</v>
@@ -1647,18 +1686,18 @@
         <v>109</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>52</v>
@@ -1678,7 +1717,7 @@
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>54</v>
@@ -1698,7 +1737,7 @@
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>54</v>
@@ -1717,31 +1756,35 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>30</v>
@@ -1750,7 +1793,7 @@
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>57</v>
@@ -1765,31 +1808,31 @@
       <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B38" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>33</v>
@@ -1798,7 +1841,7 @@
     </row>
     <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B39" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>56</v>
@@ -1814,7 +1857,7 @@
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B40" s="11" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>56</v>
@@ -1830,7 +1873,7 @@
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>53</v>
@@ -1850,14 +1893,14 @@
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>37</v>
@@ -1866,7 +1909,7 @@
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B43" s="11" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>56</v>
@@ -1882,14 +1925,14 @@
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B44" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
@@ -1898,14 +1941,14 @@
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B45" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
@@ -1914,7 +1957,7 @@
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
@@ -1936,7 +1979,7 @@
         <v>47</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>106</v>
@@ -1945,7 +1988,7 @@
         <v>48</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -683,6 +683,18 @@
     <rPh sb="0" eb="2">
       <t>イトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>development techniques like CI/CD, TDD and BDD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1105,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,20 +1632,24 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
@@ -1776,36 +1792,44 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="12"/>
+      <c r="G36" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="10" t="s">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>I don’t understand this sentence. Can you  rephrase?</t>
-  </si>
-  <si>
-    <t>Again: what kind of techniques?</t>
   </si>
   <si>
     <t>???</t>
@@ -498,10 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The same as JE47.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Clarify the meaning</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -695,6 +688,46 @@
   </si>
   <si>
     <t>development techniques like CI/CD, TDD and BDD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Again: what kind of techniques?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The same as JE67.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The same as JE67.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The same as JE51.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The same as JE51.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Two months faster than the iOS developers.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Technique の意味を明確に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rephrased. “The more the work improved, the more the slack time increased to improve further.”.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,7 +767,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,12 +786,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -772,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -801,12 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,7 +1139,7 @@
   <dimension ref="B2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,176 +1156,176 @@
   <sheetData>
     <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>7</v>
@@ -1313,706 +1334,726 @@
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>142</v>
+      <c r="G20" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B23" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>134</v>
+      <c r="G23" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
       <c r="B30" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>130</v>
+        <v>108</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="9" t="s">
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B40" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="12"/>
+      <c r="G40" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B41" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B42" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B43" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="12"/>
+      <c r="G43" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B44" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B45" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B47" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="G47" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" sheetId="3" r:id="rId1"/>
+    <sheet name="2nd iteration" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Status!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2nd iteration'!$B$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -728,6 +728,22 @@
   </si>
   <si>
     <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I’d like to say it again here. This was the big experience for me.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deleted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Added them on Introduction.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -767,18 +783,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -799,40 +809,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1138,9 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1175,59 +1171,59 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1235,824 +1231,840 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -7,17 +7,19 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2nd iteration" sheetId="3" r:id="rId1"/>
+    <sheet name="3rd iteration" sheetId="4" r:id="rId1"/>
+    <sheet name="2nd iteration" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2nd iteration'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2nd iteration'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3rd iteration'!$B$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="207">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -746,12 +748,107 @@
     <t>Added them on Introduction.</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>I wonder if the rephrasing captures better what you have in mind?</t>
+  </si>
+  <si>
+    <t>Is this the new model for both organizations or only for the one you are working for?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★Both organizations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Again: both organizations?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You mentioned already earlier, that it started to become more chaotic. So here it is continuing and not starting.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>That’s not working (at least not for me) – regression of what? I have been thinking about what you want to express and my best guess right now is you mean technical debts. Is this it? (if so, can you please change it everywhere accordingly?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Is self-organized what they became? Or maybe it is self dependent?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Which results and whose support did you get? So who is them?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ok, I understand you want to emphasize this. Yet, numerical measurement will support that the leader should act as a coordinator and not as a workforce??? Or what does the numerical measurement support?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once more: in both organizations or only yours?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>application/applications?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>organization/organizations?</t>
+  </si>
+  <si>
+    <t>organization/organizations?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再確認</t>
+    <rPh sb="0" eb="3">
+      <t>サイカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３０分くらい欲しい</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,6 +874,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
@@ -809,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -832,6 +936,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G47"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,903 +1284,145 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2"/>
@@ -2074,4 +1430,952 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B2:G47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="170.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="B2:F2"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -756,10 +756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>★Both organizations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Again: both organizations?</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -809,14 +805,6 @@
   </si>
   <si>
     <t>JE20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>application/applications?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -843,12 +831,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Sure, thanks!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/05/26 (Mon)</t>
+  </si>
+  <si>
+    <t>2014/05/26 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Both organizations. Although I think it’s better off using “company” instead of “organization(s)” here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure, both organizations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Both organizations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure!</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,15 +898,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +909,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -937,16 +955,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1250,7 +1274,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1284,145 +1310,177 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
       <c r="F9" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="214">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -780,31 +780,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Which results and whose support did you get? So who is them?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ok, I understand you want to emphasize this. Yet, numerical measurement will support that the leader should act as a coordinator and not as a workforce??? Or what does the numerical measurement support?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JE18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Once more: in both organizations or only yours?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JE20</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -822,44 +806,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３０分くらい欲しい</t>
-    <rPh sb="2" eb="3">
-      <t>フン</t>
+    <t>Sure, thanks!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/05/26 (Mon)</t>
+  </si>
+  <si>
+    <t>2014/05/26 (Mon)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Both organizations. Although I think it’s better off using “company” instead of “organization(s)” here.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure, both organizations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Both organizations.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sure!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>“Self-organized” you suggested is right.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/05/26 (Mon)
+-&gt; 2014/05/27 (Tue)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JE19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Results by the technical improvements I mentioned above. And the support by the team members and stakeholders. Thank you for clarifying!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正中</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイチュウ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>ホッ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sure, thanks!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2014/05/26 (Mon)</t>
-  </si>
-  <si>
-    <t>2014/05/26 (Mon)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Both organizations. Although I think it’s better off using “company” instead of “organization(s)” here.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sure, both organizations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Both organizations.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sure!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,7 +905,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +924,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -931,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -967,10 +979,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="56" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1274,9 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1311,167 +1330,177 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.15">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="215">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -862,10 +862,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正中</t>
-    <rPh sb="0" eb="3">
-      <t>シュウセイチュウ</t>
-    </rPh>
+    <t>I'd like to express the following things.
+1) For leader:
+- to collaborate with the team members, managers, and stakeholders
+- to get support from the team members, managers, and stakeholders
+2) For the team members:
+- to find the problems the team wants to solve
+- to support decision-making by the team
+In short, "support improving the Technology-Driven Development mechanism".</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -943,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -991,6 +999,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="56" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,23 +1479,25 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="B10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
       <c r="B11" s="13" t="s">

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="215">
   <si>
     <t>“Automation and Techniques” needs more explanation. Having read the whole document now I wonder if you mean “Automation and Development Techniques” or maybe “Automation and Technology”??</t>
   </si>
@@ -854,10 +854,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Results by the technical improvements I mentioned above. And the support by the team members and stakeholders. Thank you for clarifying!</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -876,12 +872,40 @@
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>I meant “regression” as “regression of already resolved issues”.
+My colleague from the U.S. advised me that I can mean it by “regression</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>” only.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,8 +936,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,18 +955,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -980,31 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="56" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,178 +1339,180 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="17" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="F10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B9" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="135" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.15">
-      <c r="B11" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="4" t="s">
         <v>205</v>
       </c>
     </row>
